--- a/data/trans_camb/P19C02-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/P19C02-Dificultad-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>13.65075114185655</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>19.73694654345201</v>
+        <v>19.73694654345202</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>2.713151767735489</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.421890917558491</v>
+        <v>-4.148642945745499</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.273003251104562</v>
+        <v>5.588463051545756</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.29303365289438</v>
+        <v>3.378408877853858</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.7999975328695986</v>
+        <v>-0.6622693763325215</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>8.795323631264509</v>
+        <v>9.473834105970298</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>14.6545481240718</v>
+        <v>14.39549552281387</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.158073772040963</v>
+        <v>-0.6200420339438321</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>8.883048361020782</v>
+        <v>8.676183339856317</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>11.05560961066403</v>
+        <v>10.99141002030875</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.144600173271545</v>
+        <v>6.364615635028089</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.73429399210184</v>
+        <v>16.31646303542685</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16.0417174162751</v>
+        <v>16.23369460456697</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.239152978074159</v>
+        <v>8.217011515011244</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>17.84138215987283</v>
+        <v>18.23563127100379</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>24.82364048339392</v>
+        <v>24.37332566158257</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.823411654651134</v>
+        <v>5.943423374148597</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.72475693960861</v>
+        <v>15.34488547010539</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>18.9340847576786</v>
+        <v>19.1733703126119</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>0.5957808017868368</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8614100216380129</v>
+        <v>0.8614100216380132</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1197655481307489</v>
@@ -769,7 +769,7 @@
         <v>0.5436856300860784</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.6734075588180004</v>
+        <v>0.6734075588180007</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1341785885037921</v>
+        <v>-0.1575309927462031</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1916066059156989</v>
+        <v>0.2166410486568125</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1239047986057539</v>
+        <v>0.1369491105198679</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.03402596613718142</v>
+        <v>-0.02509221133026076</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.334136448154035</v>
+        <v>0.3689119294987879</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.564437726915158</v>
+        <v>0.5689488514161334</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.04642371903716212</v>
+        <v>-0.02066776904553492</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3603767521017731</v>
+        <v>0.3558028588774654</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4490085790130475</v>
+        <v>0.4608009251157729</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3736227378168437</v>
+        <v>0.3370507867134223</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.8356172699287693</v>
+        <v>0.867814148787541</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8568618536169194</v>
+        <v>0.8256469324780044</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.3991264164161509</v>
+        <v>0.4080705140469043</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8693046126873705</v>
+        <v>0.8991649697481068</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.213120857759734</v>
+        <v>1.207244193466209</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2827346512460822</v>
+        <v>0.2914909072136724</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7621712183567778</v>
+        <v>0.7304700524213698</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.9143668927839188</v>
+        <v>0.9291569452728835</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>10.43435121390494</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>18.69680457866194</v>
+        <v>18.69680457866195</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>2.836920618208821</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.03998206640627091</v>
+        <v>-0.4269427394315725</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.181820474847053</v>
+        <v>4.033693019583686</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13.6975676306615</v>
+        <v>14.08360241545025</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.918295874630329</v>
+        <v>-3.079959420522727</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>5.701237088348041</v>
+        <v>5.153782677599867</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>14.55357396879277</v>
+        <v>14.80296795977486</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.1123789743051174</v>
+        <v>-0.4218784101556938</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>6.294574876581906</v>
+        <v>6.592244580059931</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>15.64566953693222</v>
+        <v>15.56415984563592</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.750618877265961</v>
+        <v>9.069479470495736</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.85520599658352</v>
+        <v>13.98124299553215</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>23.19110665507034</v>
+        <v>23.42578247417431</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.525796444914448</v>
+        <v>5.317667168284346</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>15.04927162946454</v>
+        <v>14.98684797774119</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>22.69372481397317</v>
+        <v>22.63533630172888</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>6.092916190467842</v>
+        <v>6.226264466362457</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>13.31893213555274</v>
+        <v>12.85352590533715</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>21.87510790037953</v>
+        <v>22.06466890381679</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>0.3608161026119115</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6465287607320902</v>
+        <v>0.6465287607320906</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1026669041753376</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0012592482356503</v>
+        <v>-0.01751753401784256</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1461767425836284</v>
+        <v>0.1443551425835729</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.4844318191361586</v>
+        <v>0.4903672305598595</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.09546604034686963</v>
+        <v>-0.09728322347563489</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1784098946657523</v>
+        <v>0.1618951611819821</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4675153676825559</v>
+        <v>0.4631323048366129</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.003412757139172622</v>
+        <v>-0.01417438845611556</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2168351303027983</v>
+        <v>0.2235547111355184</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.5328220574254492</v>
+        <v>0.5206224047627553</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3596675240686834</v>
+        <v>0.3820081850587307</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5780162149504826</v>
+        <v>0.5901877725523651</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.9781168301042159</v>
+        <v>0.9863433932126856</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2094715334511447</v>
+        <v>0.2038399554340879</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5620696763390262</v>
+        <v>0.5589934427435703</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.850306013516003</v>
+        <v>0.8582127630850062</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2347102974155083</v>
+        <v>0.2372410604861874</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5161293837945071</v>
+        <v>0.4838951530991615</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8360128203362085</v>
+        <v>0.8544489353655159</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>5.971033668665948</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21.14066662687938</v>
+        <v>21.14066662687937</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.928963792888538</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.554191910670268</v>
+        <v>-2.488900145526094</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.318880801951259</v>
+        <v>1.40821203326845</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16.73803718213988</v>
+        <v>15.90521196241563</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.532700839996879</v>
+        <v>-2.879048453712272</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3750028691594885</v>
+        <v>-0.5957993631240537</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>15.39216869622463</v>
+        <v>15.27521007868918</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.146571243045154</v>
+        <v>-1.258584711291502</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>2.43923318856574</v>
+        <v>2.021071434966051</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>17.57775075853383</v>
+        <v>17.44687002914929</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.891397506396027</v>
+        <v>6.419549199591705</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.6543717509642</v>
+        <v>10.84302746320967</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>25.85557760228882</v>
+        <v>25.39456915740464</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6.799782460983399</v>
+        <v>6.383986597273996</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>10.23488609103269</v>
+        <v>9.518897818805135</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>23.77820776298748</v>
+        <v>23.90525455406905</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.595611462429521</v>
+        <v>5.050933348486963</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.201100058414461</v>
+        <v>9.072534472741562</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>23.82938864335618</v>
+        <v>23.552635256879</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2006719985692336</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.7104866692285141</v>
+        <v>0.7104866692285138</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.06141213032788738</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.07931979628978704</v>
+        <v>-0.08073039401884208</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.04881499445003231</v>
+        <v>0.04370748120569112</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5285784126851915</v>
+        <v>0.4951807036518364</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.07595995200052537</v>
+        <v>-0.08426603188069699</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.01284183500934104</v>
+        <v>-0.008132821744733894</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.443979347764835</v>
+        <v>0.4536064475517001</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.03441438176927826</v>
+        <v>-0.03708937511497685</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.07834575034602596</v>
+        <v>0.06337186235771708</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.5409015003151713</v>
+        <v>0.5392087490815437</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.2548028348096775</v>
+        <v>0.2319843254904278</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3879648491957501</v>
+        <v>0.3931721571888882</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9489592271501409</v>
+        <v>0.9353922721988378</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.228981751022238</v>
+        <v>0.2223049104448811</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3576162348048148</v>
+        <v>0.3312749958416684</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8265586017742622</v>
+        <v>0.8284210574126495</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1911502882190806</v>
+        <v>0.1751487409040126</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3140947427052929</v>
+        <v>0.3169046090700378</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.824007360591625</v>
+        <v>0.8198178345554961</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-2.373880466304818</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14.24383441845516</v>
+        <v>14.24383441845515</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>0.01652010435835849</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-12.10157399525301</v>
+        <v>-11.97524138910391</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.513741333337677</v>
+        <v>-9.78266149673957</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>7.28155666384308</v>
+        <v>7.836347566984317</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.184850066455509</v>
+        <v>-8.337672839380804</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.18220055229387</v>
+        <v>-13.87002104037126</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.837539033178534</v>
+        <v>4.732825489434682</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-7.497863977366075</v>
+        <v>-7.928965175757932</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.245351618110242</v>
+        <v>-9.233473427482052</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>8.43710394141864</v>
+        <v>8.068636718620562</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.413650535833263</v>
+        <v>1.866159306442803</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.812697721370355</v>
+        <v>4.386552177852134</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20.74952222455203</v>
+        <v>21.15850480134175</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.368096970979045</v>
+        <v>7.667878251703018</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.672105943831117</v>
+        <v>1.611805399536909</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>18.33349414832451</v>
+        <v>17.52125617388629</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.765041157292529</v>
+        <v>3.213896819196132</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.196040043708939</v>
+        <v>1.399811828327903</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.38271108565676</v>
+        <v>17.427966878971</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.06013477946319172</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.3608226503490828</v>
+        <v>0.3608226503490825</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.0004086053215024161</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2793992035571774</v>
+        <v>-0.276245325253968</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2242197340784536</v>
+        <v>-0.2230279858600042</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1609756322861711</v>
+        <v>0.1772734821728701</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1804771701426105</v>
+        <v>-0.186727283331145</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2975256077349389</v>
+        <v>-0.3019228132279479</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.105365821519981</v>
+        <v>0.1056241556700259</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1806291410996263</v>
+        <v>-0.1844375734415399</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.2152504208209564</v>
+        <v>-0.2142404459577218</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.1949827020633959</v>
+        <v>0.1819773416156976</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.06973761128561148</v>
+        <v>0.04993707930128761</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1323400583570705</v>
+        <v>0.122382334622615</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5925238634859376</v>
+        <v>0.6136167562680013</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2052458064685883</v>
+        <v>0.2184667516168777</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04413226956263528</v>
+        <v>0.04844461374485014</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.521557100491029</v>
+        <v>0.5031568990978462</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07443359897492327</v>
+        <v>0.08453715644944797</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.03331616508733633</v>
+        <v>0.03865761585544307</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4836054780472221</v>
+        <v>0.4845209987081109</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.63680891068888</v>
+        <v>-1.799892166944784</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>3.63341356750218</v>
+        <v>3.675348895769154</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15.94439060158108</v>
+        <v>16.12643273328604</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.4208618488365241</v>
+        <v>-0.427012554775059</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>5.161410660192102</v>
+        <v>4.930693066786159</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>17.37250413647017</v>
+        <v>17.32028009083042</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1464496635491195</v>
+        <v>-0.256682539801213</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>5.33716403758925</v>
+        <v>5.228241365215039</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>17.51866245262003</v>
+        <v>17.41731041973398</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.519151900500371</v>
+        <v>3.381746075402802</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>8.908062080796032</v>
+        <v>8.908237600206881</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21.34750224861369</v>
+        <v>21.17711777521613</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.63148725383411</v>
+        <v>4.521650067982477</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.34231468088402</v>
+        <v>10.15677737323859</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>22.01813207533304</v>
+        <v>21.98484635625212</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>3.152175187024291</v>
+        <v>3.238567482099195</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.986723414823507</v>
+        <v>8.964917760772428</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>20.95337654745183</v>
+        <v>21.08877367402017</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.2694449115380949</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.6679410862703893</v>
+        <v>0.6679410862703895</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.05257857547403495</v>
@@ -1625,7 +1625,7 @@
         <v>0.2448722225304733</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.6587869009351605</v>
+        <v>0.6587869009351607</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.05427180422255778</v>
+        <v>-0.06093665971868346</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1208952105868951</v>
+        <v>0.1243233961952231</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.532990426293049</v>
+        <v>0.5352086805975286</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.01316466551769277</v>
+        <v>-0.01469565794224769</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1697045725183971</v>
+        <v>0.1582415484632248</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5630264825772897</v>
+        <v>0.5656343047111524</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.004971890179274757</v>
+        <v>-0.007990499926141837</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1782759842024162</v>
+        <v>0.1734602004719931</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5806338822468351</v>
+        <v>0.5823523410843937</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1312690774319197</v>
+        <v>0.1241000508269053</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3306039718825932</v>
+        <v>0.3228405469911959</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.7945524877436851</v>
+        <v>0.7733940785012613</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1679965845946982</v>
+        <v>0.1596723769182508</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.3665897723602094</v>
+        <v>0.3629481889755767</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.792746510174015</v>
+        <v>0.7981845262485197</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.112222905926014</v>
+        <v>0.1158224657969518</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3214000283100287</v>
+        <v>0.3166186231187259</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.7506824370411062</v>
+        <v>0.7591248353624707</v>
       </c>
     </row>
     <row r="34">
